--- a/Data-extracted/final/binding_energies/analysis/NiS2_S.xlsx
+++ b/Data-extracted/final/binding_energies/analysis/NiS2_S.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cooperunion-my.sharepoint.com/personal/andrew_kim_cooper_edu/Documents/Masters/Data_management/Data-extracted/final/binding_energies/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{4963D4FC-546D-4E4C-B563-2F7AB728A1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53186FA5-8AAF-4A92-9E27-0172FFC5A864}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{4963D4FC-546D-4E4C-B563-2F7AB728A1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31EDEDE6-BF81-4F5B-AB72-3D674FC7C5B7}"/>
   <bookViews>
     <workbookView xWindow="-15855" yWindow="5715" windowWidth="15960" windowHeight="12345" xr2:uid="{CCE04FBE-D7C8-412B-A461-3CC83B4F741E}"/>
   </bookViews>
   <sheets>
     <sheet name="NiS2_S" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
   <si>
     <t>NaPS</t>
   </si>
@@ -978,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53033B84-4646-4D8F-A503-085981687361}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,12 +1413,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -1415,8 +1428,11 @@
       <c r="D19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1432,8 +1448,12 @@
         <f>AVERAGE(D12:D16)</f>
         <v>0.25528830595103458</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f>_xlfn.STDEV.P(D12:D16)</f>
+        <v>5.2165658559573239E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1450,7 +1470,7 @@
         <v>0.21111390704336319</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1467,12 +1487,12 @@
         <v>0.15101073651003358</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1481,15 +1501,19 @@
         <v>543.82787572928714</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:D24" si="0">C20*2625.5</f>
+        <f t="shared" ref="C24:E24" si="0">C20*2625.5</f>
         <v>927.03802158952942</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
         <v>670.2594472744413</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>136.96093654815954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1506,7 +1530,7 @@
         <v>554.27956294235003</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1523,12 +1547,12 @@
         <v>396.47868870709317</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -1539,7 +1563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1556,7 +1580,7 @@
         <v>-12.550499416373651</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1573,7 +1597,7 @@
         <v>-7.8180882429103331</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
